--- a/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M2\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66204AD-FB3D-4013-AE37-EBA0BE823A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BD7A6-FE0B-4E4E-85A1-3A4A17FC2145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -362,9 +362,6 @@
     <t>TRANSACTIONS_AMOUNT_Servicing_Interest_Accrual</t>
   </si>
   <si>
-    <t>ATTRIBUTES_INTEREST_RATE_CURRENT</t>
-  </si>
-  <si>
     <t>BALANCES_BEGINNINGBALANCE_Unpaid_Principal_Balance</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>Helper Column</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_INTEREST_RATE_CURRENT</t>
   </si>
 </sst>
 </file>
@@ -802,6 +802,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,7 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,18 +1127,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="H1" s="93" t="s">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="H1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="94"/>
       <c r="M1" s="8" t="s">
         <v>35</v>
       </c>
@@ -2586,38 +2586,38 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="H5" s="105" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="H5" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="P5" s="104" t="s">
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="P5" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="W5" s="104" t="s">
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="W5" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
@@ -3641,8 +3641,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,16 +3671,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3705,8 +3705,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,15 +3810,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
       <c r="J1" s="26" t="s">
         <v>3</v>
       </c>
@@ -4063,15 +4063,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
@@ -4214,15 +4214,15 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
@@ -4403,15 +4403,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
@@ -4474,15 +4474,15 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
@@ -4579,15 +4579,15 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="84" t="s">
@@ -4684,15 +4684,15 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="98"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="84" t="s">
@@ -4848,15 +4848,15 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="84" t="s">
@@ -4953,15 +4953,15 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="97"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="84" t="s">
@@ -5135,15 +5135,15 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="97"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="98"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="84" t="s">
@@ -5335,15 +5335,15 @@
     </row>
     <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="97"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="98"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
@@ -5479,15 +5479,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="95" t="s">
+      <c r="A69" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="96"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="97"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="98"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="84" t="s">
@@ -5584,15 +5584,15 @@
     </row>
     <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="95" t="s">
+      <c r="A76" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="96"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="97"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="98"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="84" t="s">
@@ -5898,15 +5898,15 @@
     </row>
     <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="95" t="s">
+      <c r="A94" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="96"/>
-      <c r="E94" s="96"/>
-      <c r="F94" s="96"/>
-      <c r="G94" s="97"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="97"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="97"/>
+      <c r="F94" s="97"/>
+      <c r="G94" s="98"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="84" t="s">
@@ -5967,17 +5967,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6012,19 +6012,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -6130,7 +6130,7 @@
         <v>21</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -6185,7 +6185,7 @@
         <f t="shared" ref="M10:M21" si="6">IFERROR(IF(B10="","",F10-I10+L10),0)</f>
         <v/>
       </c>
-      <c r="N10" s="106">
+      <c r="N10" s="93">
         <f>IF(I10&lt;&gt;"",ROW(),0)</f>
         <v>0</v>
       </c>
@@ -6244,7 +6244,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N11" s="106">
+      <c r="N11" s="93">
         <f t="shared" ref="N11:N21" si="9">IF(I11&lt;&gt;"",ROW(),0)</f>
         <v>0</v>
       </c>
@@ -6303,7 +6303,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N12" s="106">
+      <c r="N12" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6362,7 +6362,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N13" s="106">
+      <c r="N13" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6421,7 +6421,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N14" s="106">
+      <c r="N14" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6480,7 +6480,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N15" s="106">
+      <c r="N15" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6539,7 +6539,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N16" s="106">
+      <c r="N16" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6598,7 +6598,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N17" s="106">
+      <c r="N17" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6663,7 +6663,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="106">
+      <c r="N18" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6728,7 +6728,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N19" s="106">
+      <c r="N19" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6793,7 +6793,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N20" s="106">
+      <c r="N20" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6858,7 +6858,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N21" s="106">
+      <c r="N21" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6931,19 +6931,19 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="103"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="104"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
@@ -7028,10 +7028,10 @@
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="103"/>
+      <c r="B29" s="104"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
@@ -7063,10 +7063,10 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="104"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
@@ -7088,14 +7088,14 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="100"/>
+      <c r="A39" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="101"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">

--- a/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M2\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BD7A6-FE0B-4E4E-85A1-3A4A17FC2145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D49C9DA-BA15-4D50-800E-85FD123C5027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -362,19 +362,19 @@
     <t>TRANSACTIONS_AMOUNT_Servicing_Interest_Accrual</t>
   </si>
   <si>
-    <t>BALANCES_BEGINNINGBALANCE_Unpaid_Principal_Balance</t>
-  </si>
-  <si>
-    <t>BALANCES_BEGINNINGBALANCE_Accrued_Interest_Receivable</t>
-  </si>
-  <si>
-    <t>BALANCES_BEGINNINGBALANCE_Servicing_Interest_Accrual</t>
-  </si>
-  <si>
     <t>Helper Column</t>
   </si>
   <si>
     <t>ATTRIBUTE_INTEREST_RATE_CURRENT</t>
+  </si>
+  <si>
+    <t>BALANCES_ENDINGBALANCE_Unpaid_Principal_Balance</t>
+  </si>
+  <si>
+    <t>BALANCES_ENDINGBALANCE_Accrued_Interest_Receivable</t>
+  </si>
+  <si>
+    <t>BALANCES_ENDINGBALANCE_Servicing_Interest_Accrual</t>
   </si>
 </sst>
 </file>
@@ -3641,8 +3641,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,16 +3671,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3705,7 +3705,7 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5967,17 +5967,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6130,7 +6130,7 @@
         <v>21</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M2\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D49C9DA-BA15-4D50-800E-85FD123C5027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01D8F86-5D96-4400-9D7F-78C2F093AF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -644,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -838,6 +838,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3641,7 +3643,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -5967,17 +5969,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5991,8 +5993,8 @@
   </sheetPr>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7139,7 +7141,7 @@
         <v/>
       </c>
       <c r="F41" s="8" t="str">
-        <f>IF(A41="","","1")</f>
+        <f>IF(A41="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7165,7 +7167,7 @@
         <v/>
       </c>
       <c r="F42" s="8" t="str">
-        <f>IF(A42="","","1")</f>
+        <f>IF(A42="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7191,7 +7193,7 @@
         <v/>
       </c>
       <c r="F43" s="8" t="str">
-        <f t="shared" ref="F43:F44" si="11">IF(A43="","","1")</f>
+        <f>IF(A43="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7217,7 +7219,7 @@
         <v/>
       </c>
       <c r="F44" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(A44="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7243,7 +7245,7 @@
         <v/>
       </c>
       <c r="F45" s="8" t="str">
-        <f>IF(A45="","","1")</f>
+        <f>IF(A45="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7409,15 +7411,15 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="108" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="108" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="2"/>
@@ -7430,10 +7432,10 @@
       <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="107" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="26" t="s">
@@ -7452,11 +7454,11 @@
         <f>CALCULATION!B41</f>
         <v/>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="108" t="str">
         <f>CALCULATION!C41</f>
         <v/>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="108" t="str">
         <f>CALCULATION!D41</f>
         <v/>
       </c>
@@ -7478,11 +7480,11 @@
         <f>CALCULATION!B42</f>
         <v/>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="108" t="str">
         <f>CALCULATION!C42</f>
         <v/>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="108" t="str">
         <f>CALCULATION!D42</f>
         <v/>
       </c>
@@ -7504,11 +7506,11 @@
         <f>CALCULATION!B43</f>
         <v/>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="108" t="str">
         <f>CALCULATION!C43</f>
         <v/>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="108" t="str">
         <f>CALCULATION!D43</f>
         <v/>
       </c>
@@ -7530,11 +7532,11 @@
         <f>CALCULATION!B44</f>
         <v/>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="108" t="str">
         <f>CALCULATION!C44</f>
         <v/>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="108" t="str">
         <f>CALCULATION!D44</f>
         <v/>
       </c>
@@ -7556,11 +7558,11 @@
         <f>CALCULATION!B45</f>
         <v/>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="108" t="str">
         <f>CALCULATION!C45</f>
         <v/>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="108" t="str">
         <f>CALCULATION!D45</f>
         <v/>
       </c>

--- a/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M2\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01D8F86-5D96-4400-9D7F-78C2F093AF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EAA004-DDC3-4C81-ACC3-AA81425189B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="110">
   <si>
     <t>Transactions</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>BALANCES_ENDINGBALANCE_Servicing_Interest_Accrual</t>
+  </si>
+  <si>
+    <t>TransactionName</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +480,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79989013336588644"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -644,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -803,6 +812,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -838,8 +849,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,18 +1139,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="H1" s="94" t="s">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="H1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="94"/>
+      <c r="I1" s="96"/>
       <c r="M1" s="8" t="s">
         <v>35</v>
       </c>
@@ -2588,38 +2598,38 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="H5" s="106" t="s">
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="H5" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="P5" s="105" t="s">
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="P5" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="W5" s="105" t="s">
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="W5" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
@@ -3812,15 +3822,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
       <c r="J1" s="26" t="s">
         <v>3</v>
       </c>
@@ -4065,15 +4075,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
@@ -4216,15 +4226,15 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
@@ -4405,15 +4415,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
@@ -4476,15 +4486,15 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
@@ -4581,15 +4591,15 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="84" t="s">
@@ -4686,15 +4696,15 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="84" t="s">
@@ -4850,15 +4860,15 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="100"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="84" t="s">
@@ -4955,15 +4965,15 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="100"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="84" t="s">
@@ -5137,15 +5147,15 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="98"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="100"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="84" t="s">
@@ -5337,15 +5347,15 @@
     </row>
     <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="98"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="100"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
@@ -5481,15 +5491,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="96" t="s">
+      <c r="A69" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="97"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="98"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="100"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="84" t="s">
@@ -5586,15 +5596,15 @@
     </row>
     <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="96" t="s">
+      <c r="A76" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="97"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="98"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="100"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="84" t="s">
@@ -5900,15 +5910,15 @@
     </row>
     <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="96" t="s">
+      <c r="A94" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="97"/>
-      <c r="E94" s="97"/>
-      <c r="F94" s="97"/>
-      <c r="G94" s="98"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="100"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="84" t="s">
@@ -5969,17 +5979,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5993,7 +6003,7 @@
   </sheetPr>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -6014,19 +6024,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -6933,19 +6943,19 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="104"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
@@ -7030,10 +7040,10 @@
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="104"/>
+      <c r="B29" s="106"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
@@ -7065,10 +7075,10 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="104"/>
+      <c r="B35" s="106"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
@@ -7090,14 +7100,14 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="101"/>
+      <c r="A39" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="103"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -7410,16 +7420,16 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="108" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="108" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="95" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="95" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="2"/>
@@ -7432,11 +7442,11 @@
       <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="107" t="s">
-        <v>10</v>
+      <c r="D1" s="109" t="s">
+        <v>109</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>1</v>
@@ -7454,11 +7464,11 @@
         <f>CALCULATION!B41</f>
         <v/>
       </c>
-      <c r="C2" s="108" t="str">
+      <c r="C2" s="95" t="str">
         <f>CALCULATION!C41</f>
         <v/>
       </c>
-      <c r="D2" s="108" t="str">
+      <c r="D2" s="95" t="str">
         <f>CALCULATION!D41</f>
         <v/>
       </c>
@@ -7480,11 +7490,11 @@
         <f>CALCULATION!B42</f>
         <v/>
       </c>
-      <c r="C3" s="108" t="str">
+      <c r="C3" s="95" t="str">
         <f>CALCULATION!C42</f>
         <v/>
       </c>
-      <c r="D3" s="108" t="str">
+      <c r="D3" s="95" t="str">
         <f>CALCULATION!D42</f>
         <v/>
       </c>
@@ -7506,11 +7516,11 @@
         <f>CALCULATION!B43</f>
         <v/>
       </c>
-      <c r="C4" s="108" t="str">
+      <c r="C4" s="95" t="str">
         <f>CALCULATION!C43</f>
         <v/>
       </c>
-      <c r="D4" s="108" t="str">
+      <c r="D4" s="95" t="str">
         <f>CALCULATION!D43</f>
         <v/>
       </c>
@@ -7532,11 +7542,11 @@
         <f>CALCULATION!B44</f>
         <v/>
       </c>
-      <c r="C5" s="108" t="str">
+      <c r="C5" s="95" t="str">
         <f>CALCULATION!C44</f>
         <v/>
       </c>
-      <c r="D5" s="108" t="str">
+      <c r="D5" s="95" t="str">
         <f>CALCULATION!D44</f>
         <v/>
       </c>
@@ -7558,11 +7568,11 @@
         <f>CALCULATION!B45</f>
         <v/>
       </c>
-      <c r="C6" s="108" t="str">
+      <c r="C6" s="95" t="str">
         <f>CALCULATION!C45</f>
         <v/>
       </c>
-      <c r="D6" s="108" t="str">
+      <c r="D6" s="95" t="str">
         <f>CALCULATION!D45</f>
         <v/>
       </c>

--- a/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M2\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EAA004-DDC3-4C81-ACC3-AA81425189B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF98AE0-4410-43A0-B98D-F245F9485F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
-    <sheet name="PMT" sheetId="27" r:id="rId2"/>
-    <sheet name="INT_ACC" sheetId="28" r:id="rId3"/>
-    <sheet name="PMT_RP" sheetId="33" r:id="rId4"/>
+    <sheet name="TRANX" sheetId="27" r:id="rId2"/>
+    <sheet name="EOD" sheetId="28" r:id="rId3"/>
+    <sheet name="REPLAY" sheetId="33" r:id="rId4"/>
     <sheet name="Sample Data" sheetId="31" r:id="rId5"/>
     <sheet name="EXPECTED" sheetId="35" r:id="rId6"/>
     <sheet name="CALCULATION" sheetId="29" r:id="rId7"/>
@@ -368,16 +368,16 @@
     <t>ATTRIBUTE_INTEREST_RATE_CURRENT</t>
   </si>
   <si>
-    <t>BALANCES_ENDINGBALANCE_Unpaid_Principal_Balance</t>
-  </si>
-  <si>
-    <t>BALANCES_ENDINGBALANCE_Accrued_Interest_Receivable</t>
-  </si>
-  <si>
-    <t>BALANCES_ENDINGBALANCE_Servicing_Interest_Accrual</t>
-  </si>
-  <si>
     <t>TransactionName</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_Unpaid_Principal_Balance</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_Accrued_Interest_Receivable</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_Servicing_Interest_Accrual</t>
   </si>
 </sst>
 </file>
@@ -814,6 +814,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,7 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,18 +1139,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="H1" s="96" t="s">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="H1" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="M1" s="8" t="s">
         <v>35</v>
       </c>
@@ -2598,38 +2598,38 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="H5" s="108" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="H5" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="P5" s="107" t="s">
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="P5" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="W5" s="107" t="s">
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="W5" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
@@ -3654,7 +3654,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="A1:R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,13 +3686,13 @@
         <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3717,8 +3717,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,15 +3822,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
       <c r="J1" s="26" t="s">
         <v>3</v>
       </c>
@@ -4075,15 +4075,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
@@ -4226,15 +4226,15 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
@@ -4415,15 +4415,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
@@ -4486,15 +4486,15 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
@@ -4591,15 +4591,15 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="84" t="s">
@@ -4696,15 +4696,15 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="101"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="84" t="s">
@@ -4860,15 +4860,15 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="101"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="84" t="s">
@@ -4965,15 +4965,15 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="100"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="101"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="84" t="s">
@@ -5147,15 +5147,15 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="98" t="s">
+      <c r="A51" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="100"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="101"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="84" t="s">
@@ -5347,15 +5347,15 @@
     </row>
     <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="100"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="101"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
@@ -5491,15 +5491,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="99"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="100"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="101"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="84" t="s">
@@ -5596,15 +5596,15 @@
     </row>
     <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="98" t="s">
+      <c r="A76" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="99"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="100"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="101"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="84" t="s">
@@ -5910,15 +5910,15 @@
     </row>
     <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="98" t="s">
+      <c r="A94" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="99"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="100"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="100"/>
+      <c r="D94" s="100"/>
+      <c r="E94" s="100"/>
+      <c r="F94" s="100"/>
+      <c r="G94" s="101"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="84" t="s">
@@ -5979,17 +5979,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6024,26 +6024,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="103"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="29">
-        <f>INT_ACC!E2/100</f>
+        <f>EOD!E2/100</f>
         <v>0</v>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="30">
-        <f>INT_ACC!C2</f>
+        <f>EOD!C2</f>
         <v>0</v>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="str">
-        <f>IF(INT_ACC!A2="","",INT_ACC!A2)</f>
+        <f>IF(EOD!A2="","",EOD!A2)</f>
         <v/>
       </c>
       <c r="D4" s="66"/>
@@ -6071,7 +6071,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="31" t="str">
-        <f>IF(OR(MIN(PMT!$B$2:$B$13)=B4,MIN(PMT!$B$2:$B$13)=0),"",MIN(PMT!$B$2:$B$13))</f>
+        <f>IF(OR(MIN(TRANX!$B$2:$B$13)=B4,MIN(TRANX!$B$2:$B$13)=0),"",MIN(TRANX!$B$2:$B$13))</f>
         <v/>
       </c>
       <c r="D5" s="66"/>
@@ -6081,7 +6081,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="68" t="str">
-        <f>IF(B5&lt;&gt;"",C27-SUM(PMT_RP!$F$2:$F$13),"")</f>
+        <f>IF(B5&lt;&gt;"",C27-SUM(REPLAY!$F$2:$F$13),"")</f>
         <v/>
       </c>
       <c r="C6" s="67"/>
@@ -6092,7 +6092,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="68" t="str">
-        <f>IF(B5&lt;&gt;"",INT_ACC!$H$2-CALCULATION!D22,"")</f>
+        <f>IF(B5&lt;&gt;"",EOD!$H$2-CALCULATION!D22,"")</f>
         <v/>
       </c>
       <c r="C7" s="67"/>
@@ -6150,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="33" t="str">
-        <f>IFERROR(IF(AND(A10=$B$6,B9&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B2,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B2)-ROW(PMT!B$2)+1,PMT!B2,"")),"")</f>
+        <f>IFERROR(IF(AND(A10=$B$6,B9&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B2,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B2)-ROW(TRANX!B$2)+1,TRANX!B2,"")),"")</f>
         <v/>
       </c>
       <c r="C10" s="87" t="str">
@@ -6158,15 +6158,15 @@
         <v/>
       </c>
       <c r="D10" s="87" t="str">
-        <f>IF(B10="","",VLOOKUP(B10,PMT_RP!$B$2:$G$13,6,FALSE)*C10)</f>
+        <f>IF(B10="","",VLOOKUP(B10,REPLAY!$B$2:$G$13,6,FALSE)*C10)</f>
         <v/>
       </c>
       <c r="E10" s="34" t="str">
-        <f>IFERROR(IF(B10="","",IF(B5="",VLOOKUP(B10,INT_ACC!$B$2:$G$5,5,FALSE),$B$6)),"")</f>
+        <f>IFERROR(IF(B10="","",IF(B5="",VLOOKUP(B10,EOD!$B$2:$G$5,5,FALSE),$B$6)),"")</f>
         <v/>
       </c>
       <c r="F10" s="34" t="str">
-        <f>IFERROR(IF(B10="","",IF(B5="",VLOOKUP(B10,INT_ACC!$B$2:$G$5,6,FALSE),$B$7)),"")</f>
+        <f>IFERROR(IF(B10="","",IF(B5="",VLOOKUP(B10,EOD!$B$2:$G$5,6,FALSE),$B$7)),"")</f>
         <v/>
       </c>
       <c r="G10" s="34" t="str">
@@ -6174,7 +6174,7 @@
         <v/>
       </c>
       <c r="H10" s="34" t="str">
-        <f>IF(B10="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B10,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B10,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B10="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B10,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B10,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I10" s="34" t="str">
@@ -6209,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="33" t="str">
-        <f>IFERROR(IF(AND(A11=$B$6,B10&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B3,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B3)-ROW(PMT_RP!B$2)+1,PMT_RP!B3,"")),"")</f>
+        <f>IFERROR(IF(AND(A11=$B$6,B10&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B3,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B3)-ROW(REPLAY!B$2)+1,REPLAY!B3,"")),"")</f>
         <v/>
       </c>
       <c r="C11" s="87" t="str">
@@ -6217,7 +6217,7 @@
         <v/>
       </c>
       <c r="D11" s="87" t="str">
-        <f>IF(B11="","",VLOOKUP(B11,PMT_RP!$B$2:$G$13,6,FALSE)*C11)</f>
+        <f>IF(B11="","",VLOOKUP(B11,REPLAY!$B$2:$G$13,6,FALSE)*C11)</f>
         <v/>
       </c>
       <c r="E11" s="34" t="str">
@@ -6233,7 +6233,7 @@
         <v/>
       </c>
       <c r="H11" s="34" t="str">
-        <f>IF(B11="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B11,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B11,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B11="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B11,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B11,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I11" s="34" t="str">
@@ -6268,7 +6268,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="33" t="str">
-        <f>IFERROR(IF(AND(A12=$B$6,B11&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B4,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B4)-ROW(PMT_RP!B$2)+1,PMT_RP!B4,"")),"")</f>
+        <f>IFERROR(IF(AND(A12=$B$6,B11&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B4,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B4)-ROW(REPLAY!B$2)+1,REPLAY!B4,"")),"")</f>
         <v/>
       </c>
       <c r="C12" s="87" t="str">
@@ -6276,7 +6276,7 @@
         <v/>
       </c>
       <c r="D12" s="87" t="str">
-        <f>IF(B12="","",VLOOKUP(B12,PMT_RP!$B$2:$G$13,6,FALSE)*C12)</f>
+        <f>IF(B12="","",VLOOKUP(B12,REPLAY!$B$2:$G$13,6,FALSE)*C12)</f>
         <v/>
       </c>
       <c r="E12" s="34" t="str">
@@ -6292,7 +6292,7 @@
         <v/>
       </c>
       <c r="H12" s="34" t="str">
-        <f>IF(B12="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B12,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B12,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B12="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B12,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B12,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I12" s="34" t="str">
@@ -6327,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="33" t="str">
-        <f>IFERROR(IF(AND(A13=$B$6,B12&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B5,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B5)-ROW(PMT_RP!B$2)+1,PMT_RP!B5,"")),"")</f>
+        <f>IFERROR(IF(AND(A13=$B$6,B12&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B5,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B5)-ROW(REPLAY!B$2)+1,REPLAY!B5,"")),"")</f>
         <v/>
       </c>
       <c r="C13" s="87" t="str">
@@ -6335,7 +6335,7 @@
         <v/>
       </c>
       <c r="D13" s="87" t="str">
-        <f>IF(B13="","",VLOOKUP(B13,PMT_RP!$B$2:$G$13,6,FALSE)*C13)</f>
+        <f>IF(B13="","",VLOOKUP(B13,REPLAY!$B$2:$G$13,6,FALSE)*C13)</f>
         <v/>
       </c>
       <c r="E13" s="34" t="str">
@@ -6351,7 +6351,7 @@
         <v/>
       </c>
       <c r="H13" s="34" t="str">
-        <f>IF(B13="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B13,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B13,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B13="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B13,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B13,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I13" s="34" t="str">
@@ -6386,7 +6386,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="33" t="str">
-        <f>IFERROR(IF(AND(A14=$B$6,B13&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B6,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B6)-ROW(PMT_RP!B$2)+1,PMT_RP!B6,"")),"")</f>
+        <f>IFERROR(IF(AND(A14=$B$6,B13&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B6,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B6)-ROW(REPLAY!B$2)+1,REPLAY!B6,"")),"")</f>
         <v/>
       </c>
       <c r="C14" s="87" t="str">
@@ -6394,7 +6394,7 @@
         <v/>
       </c>
       <c r="D14" s="87" t="str">
-        <f>IF(B14="","",VLOOKUP(B14,PMT_RP!$B$2:$G$13,6,FALSE)*C14)</f>
+        <f>IF(B14="","",VLOOKUP(B14,REPLAY!$B$2:$G$13,6,FALSE)*C14)</f>
         <v/>
       </c>
       <c r="E14" s="38" t="str">
@@ -6410,7 +6410,7 @@
         <v/>
       </c>
       <c r="H14" s="34" t="str">
-        <f>IF(B14="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B14,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B14,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B14="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B14,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B14,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I14" s="38" t="str">
@@ -6445,7 +6445,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="33" t="str">
-        <f>IFERROR(IF(AND(A15=$B$6,B14&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B7,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B7)-ROW(PMT_RP!B$2)+1,PMT_RP!B7,"")),"")</f>
+        <f>IFERROR(IF(AND(A15=$B$6,B14&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B7,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B7)-ROW(REPLAY!B$2)+1,REPLAY!B7,"")),"")</f>
         <v/>
       </c>
       <c r="C15" s="87" t="str">
@@ -6453,7 +6453,7 @@
         <v/>
       </c>
       <c r="D15" s="87" t="str">
-        <f>IF(B15="","",VLOOKUP(B15,PMT_RP!$B$2:$G$13,6,FALSE)*C15)</f>
+        <f>IF(B15="","",VLOOKUP(B15,REPLAY!$B$2:$G$13,6,FALSE)*C15)</f>
         <v/>
       </c>
       <c r="E15" s="38" t="str">
@@ -6469,7 +6469,7 @@
         <v/>
       </c>
       <c r="H15" s="34" t="str">
-        <f>IF(B15="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B15,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B15,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B15="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B15,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B15,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I15" s="38" t="str">
@@ -6504,7 +6504,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="33" t="str">
-        <f>IFERROR(IF(AND(A16=$B$6,B15&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B8,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B8)-ROW(PMT_RP!B$2)+1,PMT_RP!B8,"")),"")</f>
+        <f>IFERROR(IF(AND(A16=$B$6,B15&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B8,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B8)-ROW(REPLAY!B$2)+1,REPLAY!B8,"")),"")</f>
         <v/>
       </c>
       <c r="C16" s="87" t="str">
@@ -6512,7 +6512,7 @@
         <v/>
       </c>
       <c r="D16" s="87" t="str">
-        <f>IF(B16="","",VLOOKUP(B16,PMT_RP!$B$2:$G$13,6,FALSE)*C16)</f>
+        <f>IF(B16="","",VLOOKUP(B16,REPLAY!$B$2:$G$13,6,FALSE)*C16)</f>
         <v/>
       </c>
       <c r="E16" s="38" t="str">
@@ -6528,7 +6528,7 @@
         <v/>
       </c>
       <c r="H16" s="34" t="str">
-        <f>IF(B16="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B16,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B16,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B16="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B16,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B16,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I16" s="38" t="str">
@@ -6563,7 +6563,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="33" t="str">
-        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B9,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B9)-ROW(PMT_RP!B$2)+1,PMT_RP!B9,"")),"")</f>
+        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B9,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B9)-ROW(REPLAY!B$2)+1,REPLAY!B9,"")),"")</f>
         <v/>
       </c>
       <c r="C17" s="87" t="str">
@@ -6571,7 +6571,7 @@
         <v/>
       </c>
       <c r="D17" s="87" t="str">
-        <f>IF(B17="","",VLOOKUP(B17,PMT_RP!$B$2:$G$13,6,FALSE)*C17)</f>
+        <f>IF(B17="","",VLOOKUP(B17,REPLAY!$B$2:$G$13,6,FALSE)*C17)</f>
         <v/>
       </c>
       <c r="E17" s="38" t="str">
@@ -6587,7 +6587,7 @@
         <v/>
       </c>
       <c r="H17" s="34" t="str">
-        <f>IF(B17="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B17,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B17,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B17="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B17,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B17,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I17" s="38" t="str">
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="66" t="str">
-        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B9,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B9)-ROW(PMT!B$2)+1,PMT!B9,"")),"")</f>
+        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B9,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B9)-ROW(TRANX!B$2)+1,TRANX!B9,"")),"")</f>
         <v/>
       </c>
       <c r="P17" s="66" t="str">
@@ -6628,7 +6628,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="33" t="str">
-        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B10,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B10)-ROW(PMT_RP!B$2)+1,PMT_RP!B10,"")),"")</f>
+        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B10,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B10)-ROW(REPLAY!B$2)+1,REPLAY!B10,"")),"")</f>
         <v/>
       </c>
       <c r="C18" s="87" t="str">
@@ -6636,7 +6636,7 @@
         <v/>
       </c>
       <c r="D18" s="87" t="str">
-        <f>IF(B18="","",VLOOKUP(B18,PMT_RP!$B$2:$G$13,6,FALSE)*C18)</f>
+        <f>IF(B18="","",VLOOKUP(B18,REPLAY!$B$2:$G$13,6,FALSE)*C18)</f>
         <v/>
       </c>
       <c r="E18" s="38" t="str">
@@ -6652,7 +6652,7 @@
         <v/>
       </c>
       <c r="H18" s="34" t="str">
-        <f>IF(B18="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B18,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B18,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B18="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B18,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B18,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I18" s="38" t="str">
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="66" t="str">
-        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B10,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B10)-ROW(PMT!B$2)+1,PMT!B10,"")),"")</f>
+        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B10,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B10)-ROW(TRANX!B$2)+1,TRANX!B10,"")),"")</f>
         <v/>
       </c>
       <c r="P18" s="66" t="str">
@@ -6693,7 +6693,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="33" t="str">
-        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B11,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B11)-ROW(PMT_RP!B$2)+1,PMT_RP!B11,"")),"")</f>
+        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B11,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B11)-ROW(REPLAY!B$2)+1,REPLAY!B11,"")),"")</f>
         <v/>
       </c>
       <c r="C19" s="87" t="str">
@@ -6701,7 +6701,7 @@
         <v/>
       </c>
       <c r="D19" s="87" t="str">
-        <f>IF(B19="","",VLOOKUP(B19,PMT_RP!$B$2:$G$13,6,FALSE)*C19)</f>
+        <f>IF(B19="","",VLOOKUP(B19,REPLAY!$B$2:$G$13,6,FALSE)*C19)</f>
         <v/>
       </c>
       <c r="E19" s="38" t="str">
@@ -6717,7 +6717,7 @@
         <v/>
       </c>
       <c r="H19" s="34" t="str">
-        <f>IF(B19="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B19,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B19,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B19="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B19,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B19,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I19" s="38" t="str">
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="66" t="str">
-        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B11,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B11)-ROW(PMT!B$2)+1,PMT!B11,"")),"")</f>
+        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B11,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B11)-ROW(TRANX!B$2)+1,TRANX!B11,"")),"")</f>
         <v/>
       </c>
       <c r="P19" s="66" t="str">
@@ -6758,7 +6758,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="33" t="str">
-        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B12,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B12)-ROW(PMT_RP!B$2)+1,PMT_RP!B12,"")),"")</f>
+        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B12,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B12)-ROW(REPLAY!B$2)+1,REPLAY!B12,"")),"")</f>
         <v/>
       </c>
       <c r="C20" s="87" t="str">
@@ -6766,7 +6766,7 @@
         <v/>
       </c>
       <c r="D20" s="87" t="str">
-        <f>IF(B20="","",VLOOKUP(B20,PMT_RP!$B$2:$G$13,6,FALSE)*C20)</f>
+        <f>IF(B20="","",VLOOKUP(B20,REPLAY!$B$2:$G$13,6,FALSE)*C20)</f>
         <v/>
       </c>
       <c r="E20" s="38" t="str">
@@ -6782,7 +6782,7 @@
         <v/>
       </c>
       <c r="H20" s="34" t="str">
-        <f>IF(B20="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B20,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B20,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B20="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B20,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B20,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I20" s="38" t="str">
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="66" t="str">
-        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B12,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B12)-ROW(PMT!B$2)+1,PMT!B12,"")),"")</f>
+        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B12,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B12)-ROW(TRANX!B$2)+1,TRANX!B12,"")),"")</f>
         <v/>
       </c>
       <c r="P20" s="66" t="str">
@@ -6823,7 +6823,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="33" t="str">
-        <f>IFERROR(IF(AND(A21=$B$6,B20&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B13,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B13)-ROW(PMT_RP!B$2)+1,PMT_RP!B13,"")),"")</f>
+        <f>IFERROR(IF(AND(A21=$B$6,B20&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B13,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B13)-ROW(REPLAY!B$2)+1,REPLAY!B13,"")),"")</f>
         <v/>
       </c>
       <c r="C21" s="87" t="str">
@@ -6831,7 +6831,7 @@
         <v/>
       </c>
       <c r="D21" s="87" t="str">
-        <f>IF(B21="","",VLOOKUP(B21,PMT_RP!$B$2:$G$13,6,FALSE)*C21)</f>
+        <f>IF(B21="","",VLOOKUP(B21,REPLAY!$B$2:$G$13,6,FALSE)*C21)</f>
         <v/>
       </c>
       <c r="E21" s="38" t="str">
@@ -6847,7 +6847,7 @@
         <v/>
       </c>
       <c r="H21" s="34" t="str">
-        <f>IF(B21="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B21,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B21,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B21="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B21,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B21,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="I21" s="38" t="str">
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="66" t="str">
-        <f>IFERROR(IF(AND(A21=$B$6,B20&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B13,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B13)-ROW(PMT!B$2)+1,PMT!B13,"")),"")</f>
+        <f>IFERROR(IF(AND(A21=$B$6,B20&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B13,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B13)-ROW(TRANX!B$2)+1,TRANX!B13,"")),"")</f>
         <v/>
       </c>
       <c r="P21" s="66" t="str">
@@ -6943,19 +6943,19 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="107"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
@@ -6997,15 +6997,15 @@
         <v>1</v>
       </c>
       <c r="B27" s="33" t="str">
-        <f>IF(INT_ACC!B2="","",INT_ACC!B2)</f>
+        <f>IF(EOD!B2="","",EOD!B2)</f>
         <v/>
       </c>
       <c r="C27" s="43">
-        <f>INT_ACC!F2</f>
+        <f>EOD!F2</f>
         <v>0</v>
       </c>
       <c r="D27" s="43">
-        <f>INT_ACC!G2</f>
+        <f>EOD!G2</f>
         <v>0</v>
       </c>
       <c r="E27" s="34" t="str">
@@ -7040,10 +7040,10 @@
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="106"/>
+      <c r="B29" s="107"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
@@ -7075,10 +7075,10 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="106"/>
+      <c r="B35" s="107"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
@@ -7100,14 +7100,14 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="103"/>
+      <c r="A39" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="104"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -7151,7 +7151,7 @@
         <v/>
       </c>
       <c r="F41" s="8" t="str">
-        <f>IF(A41="","",INT_ACC!$D$2)</f>
+        <f>IF(A41="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7177,7 +7177,7 @@
         <v/>
       </c>
       <c r="F42" s="8" t="str">
-        <f>IF(A42="","",INT_ACC!$D$2)</f>
+        <f>IF(A42="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7203,7 +7203,7 @@
         <v/>
       </c>
       <c r="F43" s="8" t="str">
-        <f>IF(A43="","",INT_ACC!$D$2)</f>
+        <f>IF(A43="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
         <v/>
       </c>
       <c r="F44" s="8" t="str">
-        <f>IF(A44="","",INT_ACC!$D$2)</f>
+        <f>IF(A44="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
         <v/>
       </c>
       <c r="F45" s="8" t="str">
-        <f>IF(A45="","",INT_ACC!$D$2)</f>
+        <f>IF(A45="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7420,7 +7420,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -7445,8 +7445,8 @@
       <c r="C1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="109" t="s">
-        <v>109</v>
+      <c r="D1" s="96" t="s">
+        <v>106</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>1</v>

--- a/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M2/Model/SBO_MODEL_EVENTS_Replay_Method2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M2\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF98AE0-4410-43A0-B98D-F245F9485F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DA9A39-0695-4375-9941-9FB6A9F02674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,10 @@
     <sheet name="Sample Data" sheetId="31" r:id="rId5"/>
     <sheet name="EXPECTED" sheetId="35" r:id="rId6"/>
     <sheet name="CALCULATION" sheetId="29" r:id="rId7"/>
-    <sheet name="Events" sheetId="34" r:id="rId8"/>
-    <sheet name="o_Transaction" sheetId="7" r:id="rId9"/>
-    <sheet name="Example_worsheet_check" sheetId="32" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="36" r:id="rId8"/>
+    <sheet name="Events" sheetId="34" r:id="rId9"/>
+    <sheet name="o_Transaction" sheetId="7" r:id="rId10"/>
+    <sheet name="Example_worsheet_check" sheetId="32" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenario!$A$2:$F$51</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="111">
   <si>
     <t>Transactions</t>
   </si>
@@ -378,6 +379,9 @@
   </si>
   <si>
     <t>BALANCES_BEGINNINGBALANCE_Servicing_Interest_Accrual</t>
+  </si>
+  <si>
+    <t>Row Posting</t>
   </si>
 </sst>
 </file>
@@ -653,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -810,11 +814,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,6 +854,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2555,6 +2562,184 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="94" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
+        <f>CALCULATION!A42</f>
+        <v/>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>CALCULATION!B42</f>
+        <v/>
+      </c>
+      <c r="C2" s="94" t="str">
+        <f>CALCULATION!C42</f>
+        <v/>
+      </c>
+      <c r="D2" s="94" t="str">
+        <f>CALCULATION!D42</f>
+        <v/>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>CALCULATION!E42</f>
+        <v/>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>CALCULATION!F42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="str">
+        <f>CALCULATION!A43</f>
+        <v/>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>CALCULATION!B43</f>
+        <v/>
+      </c>
+      <c r="C3" s="94" t="str">
+        <f>CALCULATION!C43</f>
+        <v/>
+      </c>
+      <c r="D3" s="94" t="str">
+        <f>CALCULATION!D43</f>
+        <v/>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>CALCULATION!E43</f>
+        <v/>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>CALCULATION!F43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="str">
+        <f>CALCULATION!A44</f>
+        <v/>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>CALCULATION!B44</f>
+        <v/>
+      </c>
+      <c r="C4" s="94" t="str">
+        <f>CALCULATION!C44</f>
+        <v/>
+      </c>
+      <c r="D4" s="94" t="str">
+        <f>CALCULATION!D44</f>
+        <v/>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>CALCULATION!E44</f>
+        <v/>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>CALCULATION!F44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="str">
+        <f>CALCULATION!A45</f>
+        <v/>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>CALCULATION!B45</f>
+        <v/>
+      </c>
+      <c r="C5" s="94" t="str">
+        <f>CALCULATION!C45</f>
+        <v/>
+      </c>
+      <c r="D5" s="94" t="str">
+        <f>CALCULATION!D45</f>
+        <v/>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>CALCULATION!E45</f>
+        <v/>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>CALCULATION!F45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="str">
+        <f>CALCULATION!A46</f>
+        <v/>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>CALCULATION!B46</f>
+        <v/>
+      </c>
+      <c r="C6" s="94" t="str">
+        <f>CALCULATION!C46</f>
+        <v/>
+      </c>
+      <c r="D6" s="94" t="str">
+        <f>CALCULATION!D46</f>
+        <v/>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>CALCULATION!E46</f>
+        <v/>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>CALCULATION!F46</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699261AC-27ED-4344-857E-CCC894789C5D}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
@@ -3551,9 +3736,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
       <c r="F2" s="74"/>
@@ -3654,7 +3839,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:R58"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,14 +3881,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="91"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="92"/>
+      <c r="H2" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3718,7 +3903,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,8 +4578,8 @@
   </sheetPr>
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:H73"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5979,17 +6164,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6001,10 +6186,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6076,160 +6261,111 @@
       </c>
       <c r="D5" s="66"/>
     </row>
-    <row r="6" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="110">
+        <f>COUNT(REPLAY!B2:B13)+1</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="66"/>
+    </row>
+    <row r="7" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="68" t="str">
-        <f>IF(B5&lt;&gt;"",C27-SUM(REPLAY!$F$2:$F$13),"")</f>
-        <v/>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="66"/>
-    </row>
-    <row r="7" spans="1:16" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="B7" s="68" t="str">
-        <f>IF(B5&lt;&gt;"",EOD!$H$2-CALCULATION!D22,"")</f>
+        <f>IF(B5&lt;&gt;"",C28-SUM(REPLAY!$F$2:$F$13),"")</f>
         <v/>
       </c>
       <c r="C7" s="67"/>
       <c r="D7" s="66"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="68" t="str">
+        <f>IF(B5&lt;&gt;"",EOD!$H$2-CALCULATION!D23,"")</f>
+        <v/>
+      </c>
+      <c r="C8" s="67"/>
       <c r="D8" s="66"/>
     </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D9" s="66"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N10" s="13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="33" t="str">
-        <f>IFERROR(IF(AND(A10=$B$6,B9&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B2,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B2)-ROW(TRANX!B$2)+1,TRANX!B2,"")),"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="87" t="str">
-        <f t="shared" ref="C10:C21" si="0">IF(B10="","",IF(B10=$B$4,0,B11-B10))</f>
-        <v/>
-      </c>
-      <c r="D10" s="87" t="str">
-        <f>IF(B10="","",VLOOKUP(B10,REPLAY!$B$2:$G$13,6,FALSE)*C10)</f>
-        <v/>
-      </c>
-      <c r="E10" s="34" t="str">
-        <f>IFERROR(IF(B10="","",IF(B5="",VLOOKUP(B10,EOD!$B$2:$G$5,5,FALSE),$B$6)),"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="34" t="str">
-        <f>IFERROR(IF(B10="","",IF(B5="",VLOOKUP(B10,EOD!$B$2:$G$5,6,FALSE),$B$7)),"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="34" t="str">
-        <f t="shared" ref="G10:G21" si="1">IF(B10="","",IF(B11="",0,(B11-B10)-1))</f>
-        <v/>
-      </c>
-      <c r="H10" s="34" t="str">
-        <f>IF(B10="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B10,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B10,REPLAY!$E$2:$E$10)))</f>
-        <v/>
-      </c>
-      <c r="I10" s="34" t="str">
-        <f t="shared" ref="I10:I21" si="2">IF(B10="","",IF(H10&lt;F10,H10,F10))</f>
-        <v/>
-      </c>
-      <c r="J10" s="35" t="str">
-        <f t="shared" ref="J10:J21" si="3">IF(B10="","",H10-I10)</f>
-        <v/>
-      </c>
-      <c r="K10" s="36" t="str">
-        <f t="shared" ref="K10:K21" si="4">IFERROR(IF(B10="","",E10-J10),0)</f>
-        <v/>
-      </c>
-      <c r="L10" s="37" t="str">
-        <f t="shared" ref="L10:L21" si="5">IFERROR(IF(B10="","",(K10*$B$2)/360),0)</f>
-        <v/>
-      </c>
-      <c r="M10" s="35" t="str">
-        <f t="shared" ref="M10:M21" si="6">IFERROR(IF(B10="","",F10-I10+L10),0)</f>
-        <v/>
-      </c>
-      <c r="N10" s="93">
-        <f>IF(I10&lt;&gt;"",ROW(),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="69"/>
-      <c r="P10" s="66"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="33" t="str">
-        <f>IFERROR(IF(AND(A11=$B$6,B10&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B3,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B3)-ROW(REPLAY!B$2)+1,REPLAY!B3,"")),"")</f>
+        <f>IFERROR(IF(AND(A11=$B$6,B10&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B2,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B2)-ROW(TRANX!B$2)+1,TRANX!B2,"")),"")</f>
         <v/>
       </c>
       <c r="C11" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C11:C22" si="0">IF(B11="","",IF(B11=$B$4,0,B12-B11))</f>
         <v/>
       </c>
       <c r="D11" s="87" t="str">
-        <f>IF(B11="","",VLOOKUP(B11,REPLAY!$B$2:$G$13,6,FALSE)*C11)</f>
+        <f>IF(B11="","",IF(B11=$B$4,0,VLOOKUP(B11,REPLAY!$B$2:$G$13,6,FALSE)*C11))</f>
         <v/>
       </c>
       <c r="E11" s="34" t="str">
-        <f t="shared" ref="E11:E21" si="7">IF(B11="","",K10)</f>
-        <v/>
-      </c>
-      <c r="F11" s="37" t="str">
-        <f t="shared" ref="F11:F21" si="8">IF(B11="","",M10+(L10*G10))</f>
+        <f>IFERROR(IF(B11="","",IF(B5="",VLOOKUP(B11,EOD!$B$2:$G$5,5,FALSE),$B$7)),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="34" t="str">
+        <f>IFERROR(IF(B11="","",IF(B5="",VLOOKUP(B11,EOD!$B$2:$G$5,6,FALSE),$B$8)),"")</f>
         <v/>
       </c>
       <c r="G11" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G11:G22" si="1">IF(B11="","",IF(B12="",0,(B12-B11)-1))</f>
         <v/>
       </c>
       <c r="H11" s="34" t="str">
@@ -6237,27 +6373,27 @@
         <v/>
       </c>
       <c r="I11" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I11:I22" si="2">IF(B11="","",IF(H11&lt;F11,H11,F11))</f>
         <v/>
       </c>
       <c r="J11" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J11:J22" si="3">IF(B11="","",H11-I11)</f>
         <v/>
       </c>
       <c r="K11" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K11:K22" si="4">IFERROR(IF(B11="","",E11-J11),0)</f>
         <v/>
       </c>
       <c r="L11" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L11:L22" si="5">IFERROR(IF(B11="","",(K11*$B$2)/360),0)</f>
         <v/>
       </c>
       <c r="M11" s="35" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N11" s="93">
-        <f t="shared" ref="N11:N21" si="9">IF(I11&lt;&gt;"",ROW(),0)</f>
+        <f t="shared" ref="M11:M22" si="6">IFERROR(IF(B11="","",F11-I11+L11),0)</f>
+        <v/>
+      </c>
+      <c r="N11" s="92">
+        <f>IF(I11&lt;&gt;"",ROW(),0)</f>
         <v>0</v>
       </c>
       <c r="O11" s="69"/>
@@ -6265,10 +6401,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="33" t="str">
-        <f>IFERROR(IF(AND(A12=$B$6,B11&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B4,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B4)-ROW(REPLAY!B$2)+1,REPLAY!B4,"")),"")</f>
+        <f>IFERROR(IF(AND(A12=$B$6,B11&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B3,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B3)-ROW(REPLAY!B$2)+1,REPLAY!B3,"")),"")</f>
         <v/>
       </c>
       <c r="C12" s="87" t="str">
@@ -6276,15 +6412,15 @@
         <v/>
       </c>
       <c r="D12" s="87" t="str">
-        <f>IF(B12="","",VLOOKUP(B12,REPLAY!$B$2:$G$13,6,FALSE)*C12)</f>
+        <f>IF(B12="","",IF(B12=$B$4,0,VLOOKUP(B12,REPLAY!$B$2:$G$13,6,FALSE)*C12))</f>
         <v/>
       </c>
       <c r="E12" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E12:E22" si="7">IF(B12="","",K11)</f>
         <v/>
       </c>
       <c r="F12" s="37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F12:F22" si="8">IF(B12="","",M11+(L11*G11))</f>
         <v/>
       </c>
       <c r="G12" s="34" t="str">
@@ -6315,8 +6451,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N12" s="93">
-        <f t="shared" si="9"/>
+      <c r="N12" s="92">
+        <f t="shared" ref="N12:N22" si="9">IF(I12&lt;&gt;"",ROW(),0)</f>
         <v>0</v>
       </c>
       <c r="O12" s="69"/>
@@ -6324,10 +6460,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="33" t="str">
-        <f>IFERROR(IF(AND(A13=$B$6,B12&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B5,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B5)-ROW(REPLAY!B$2)+1,REPLAY!B5,"")),"")</f>
+        <f>IFERROR(IF(AND(A13=$B$6,B12&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B4,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B4)-ROW(REPLAY!B$2)+1,REPLAY!B4,"")),"")</f>
         <v/>
       </c>
       <c r="C13" s="87" t="str">
@@ -6335,7 +6471,7 @@
         <v/>
       </c>
       <c r="D13" s="87" t="str">
-        <f>IF(B13="","",VLOOKUP(B13,REPLAY!$B$2:$G$13,6,FALSE)*C13)</f>
+        <f>IF(B13="","",IF(B13=$B$4,0,VLOOKUP(B13,REPLAY!$B$2:$G$13,6,FALSE)*C13))</f>
         <v/>
       </c>
       <c r="E13" s="34" t="str">
@@ -6374,7 +6510,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N13" s="93">
+      <c r="N13" s="92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6383,10 +6519,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="33" t="str">
-        <f>IFERROR(IF(AND(A14=$B$6,B13&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B6,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B6)-ROW(REPLAY!B$2)+1,REPLAY!B6,"")),"")</f>
+        <f>IFERROR(IF(AND(A14=$B$6,B13&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B5,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B5)-ROW(REPLAY!B$2)+1,REPLAY!B5,"")),"")</f>
         <v/>
       </c>
       <c r="C14" s="87" t="str">
@@ -6394,14 +6530,14 @@
         <v/>
       </c>
       <c r="D14" s="87" t="str">
-        <f>IF(B14="","",VLOOKUP(B14,REPLAY!$B$2:$G$13,6,FALSE)*C14)</f>
-        <v/>
-      </c>
-      <c r="E14" s="38" t="str">
+        <f>IF(B14="","",IF(B14=$B$4,0,VLOOKUP(B14,REPLAY!$B$2:$G$13,6,FALSE)*C14))</f>
+        <v/>
+      </c>
+      <c r="E14" s="34" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F14" s="39" t="str">
+      <c r="F14" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6413,11 +6549,11 @@
         <f>IF(B14="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B14,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B14,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
-      <c r="I14" s="38" t="str">
+      <c r="I14" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J14" s="40" t="str">
+      <c r="J14" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6433,19 +6569,19 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O14" s="67"/>
+      <c r="O14" s="69"/>
       <c r="P14" s="66"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="33" t="str">
-        <f>IFERROR(IF(AND(A15=$B$6,B14&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B7,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B7)-ROW(REPLAY!B$2)+1,REPLAY!B7,"")),"")</f>
+        <f>IFERROR(IF(AND(A15=$B$6,B14&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B6,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B6)-ROW(REPLAY!B$2)+1,REPLAY!B6,"")),"")</f>
         <v/>
       </c>
       <c r="C15" s="87" t="str">
@@ -6453,7 +6589,7 @@
         <v/>
       </c>
       <c r="D15" s="87" t="str">
-        <f>IF(B15="","",VLOOKUP(B15,REPLAY!$B$2:$G$13,6,FALSE)*C15)</f>
+        <f>IF(B15="","",IF(B15=$B$4,0,VLOOKUP(B15,REPLAY!$B$2:$G$13,6,FALSE)*C15))</f>
         <v/>
       </c>
       <c r="E15" s="38" t="str">
@@ -6492,19 +6628,19 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O15" s="66"/>
+      <c r="O15" s="67"/>
       <c r="P15" s="66"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="33" t="str">
-        <f>IFERROR(IF(AND(A16=$B$6,B15&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B8,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B8)-ROW(REPLAY!B$2)+1,REPLAY!B8,"")),"")</f>
+        <f>IFERROR(IF(AND(A16=$B$6,B15&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B7,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B7)-ROW(REPLAY!B$2)+1,REPLAY!B7,"")),"")</f>
         <v/>
       </c>
       <c r="C16" s="87" t="str">
@@ -6512,7 +6648,7 @@
         <v/>
       </c>
       <c r="D16" s="87" t="str">
-        <f>IF(B16="","",VLOOKUP(B16,REPLAY!$B$2:$G$13,6,FALSE)*C16)</f>
+        <f>IF(B16="","",IF(B16=$B$4,0,VLOOKUP(B16,REPLAY!$B$2:$G$13,6,FALSE)*C16))</f>
         <v/>
       </c>
       <c r="E16" s="38" t="str">
@@ -6551,7 +6687,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6560,10 +6696,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="33" t="str">
-        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B9,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B9)-ROW(REPLAY!B$2)+1,REPLAY!B9,"")),"")</f>
+        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B8,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B8)-ROW(REPLAY!B$2)+1,REPLAY!B8,"")),"")</f>
         <v/>
       </c>
       <c r="C17" s="87" t="str">
@@ -6571,7 +6707,7 @@
         <v/>
       </c>
       <c r="D17" s="87" t="str">
-        <f>IF(B17="","",VLOOKUP(B17,REPLAY!$B$2:$G$13,6,FALSE)*C17)</f>
+        <f>IF(B17="","",IF(B17=$B$4,0,VLOOKUP(B17,REPLAY!$B$2:$G$13,6,FALSE)*C17))</f>
         <v/>
       </c>
       <c r="E17" s="38" t="str">
@@ -6610,25 +6746,19 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O17" s="66" t="str">
-        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B9,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B9)-ROW(TRANX!B$2)+1,TRANX!B9,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P17" s="66" t="str">
-        <f>IFERROR(SMALL($O$10:$O$13,A17),"")</f>
-        <v/>
-      </c>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="33" t="str">
-        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B10,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B10)-ROW(REPLAY!B$2)+1,REPLAY!B10,"")),"")</f>
+        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B9,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B9)-ROW(REPLAY!B$2)+1,REPLAY!B9,"")),"")</f>
         <v/>
       </c>
       <c r="C18" s="87" t="str">
@@ -6636,7 +6766,7 @@
         <v/>
       </c>
       <c r="D18" s="87" t="str">
-        <f>IF(B18="","",VLOOKUP(B18,REPLAY!$B$2:$G$13,6,FALSE)*C18)</f>
+        <f>IF(B18="","",IF(B18=$B$4,0,VLOOKUP(B18,REPLAY!$B$2:$G$13,6,FALSE)*C18))</f>
         <v/>
       </c>
       <c r="E18" s="38" t="str">
@@ -6675,25 +6805,25 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O18" s="66" t="str">
-        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B10,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B10)-ROW(TRANX!B$2)+1,TRANX!B10,"")),"")</f>
+        <f>IFERROR(IF(AND(A18=$B$7,B17&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B9,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B9)-ROW(TRANX!B$2)+1,TRANX!B9,"")),"")</f>
         <v/>
       </c>
       <c r="P18" s="66" t="str">
-        <f>IFERROR(SMALL($O$10:$O$13,A18),"")</f>
+        <f>IFERROR(SMALL($O$11:$O$14,A18),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="33" t="str">
-        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B11,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B11)-ROW(REPLAY!B$2)+1,REPLAY!B11,"")),"")</f>
+        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B10,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B10)-ROW(REPLAY!B$2)+1,REPLAY!B10,"")),"")</f>
         <v/>
       </c>
       <c r="C19" s="87" t="str">
@@ -6701,7 +6831,7 @@
         <v/>
       </c>
       <c r="D19" s="87" t="str">
-        <f>IF(B19="","",VLOOKUP(B19,REPLAY!$B$2:$G$13,6,FALSE)*C19)</f>
+        <f>IF(B19="","",IF(B19=$B$4,0,VLOOKUP(B19,REPLAY!$B$2:$G$13,6,FALSE)*C19))</f>
         <v/>
       </c>
       <c r="E19" s="38" t="str">
@@ -6740,25 +6870,25 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O19" s="66" t="str">
-        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B11,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B11)-ROW(TRANX!B$2)+1,TRANX!B11,"")),"")</f>
+        <f>IFERROR(IF(AND(A19=$B$7,B18&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B10,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B10)-ROW(TRANX!B$2)+1,TRANX!B10,"")),"")</f>
         <v/>
       </c>
       <c r="P19" s="66" t="str">
-        <f>IFERROR(SMALL($O$10:$O$13,A19),"")</f>
+        <f>IFERROR(SMALL($O$11:$O$14,A19),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="33" t="str">
-        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B12,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B12)-ROW(REPLAY!B$2)+1,REPLAY!B12,"")),"")</f>
+        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B11,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B11)-ROW(REPLAY!B$2)+1,REPLAY!B11,"")),"")</f>
         <v/>
       </c>
       <c r="C20" s="87" t="str">
@@ -6766,7 +6896,7 @@
         <v/>
       </c>
       <c r="D20" s="87" t="str">
-        <f>IF(B20="","",VLOOKUP(B20,REPLAY!$B$2:$G$13,6,FALSE)*C20)</f>
+        <f>IF(B20="","",IF(B20=$B$4,0,VLOOKUP(B20,REPLAY!$B$2:$G$13,6,FALSE)*C20))</f>
         <v/>
       </c>
       <c r="E20" s="38" t="str">
@@ -6805,25 +6935,25 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N20" s="93">
+      <c r="N20" s="92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O20" s="66" t="str">
-        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B12,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B12)-ROW(TRANX!B$2)+1,TRANX!B12,"")),"")</f>
+        <f>IFERROR(IF(AND(A20=$B$7,B19&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B11,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B11)-ROW(TRANX!B$2)+1,TRANX!B11,"")),"")</f>
         <v/>
       </c>
       <c r="P20" s="66" t="str">
-        <f>IFERROR(SMALL($O$10:$O$13,A20),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>IFERROR(SMALL($O$11:$O$14,A20),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="33" t="str">
-        <f>IFERROR(IF(AND(A21=$B$6,B20&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B13,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B13)-ROW(REPLAY!B$2)+1,REPLAY!B13,"")),"")</f>
+        <f>IFERROR(IF(AND(A21=$B$6,B20&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B12,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B12)-ROW(REPLAY!B$2)+1,REPLAY!B12,"")),"")</f>
         <v/>
       </c>
       <c r="C21" s="87" t="str">
@@ -6831,7 +6961,7 @@
         <v/>
       </c>
       <c r="D21" s="87" t="str">
-        <f>IF(B21="","",VLOOKUP(B21,REPLAY!$B$2:$G$13,6,FALSE)*C21)</f>
+        <f>IF(B21="","",IF(B21=$B$4,0,VLOOKUP(B21,REPLAY!$B$2:$G$13,6,FALSE)*C21))</f>
         <v/>
       </c>
       <c r="E21" s="38" t="str">
@@ -6870,309 +7000,348 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N21" s="93">
+      <c r="N21" s="92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O21" s="66" t="str">
-        <f>IFERROR(IF(AND(A21=$B$6,B20&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B13,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B13)-ROW(TRANX!B$2)+1,TRANX!B13,"")),"")</f>
+        <f>IFERROR(IF(AND(A21=$B$7,B20&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B12,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B12)-ROW(TRANX!B$2)+1,TRANX!B12,"")),"")</f>
         <v/>
       </c>
       <c r="P21" s="66" t="str">
-        <f>IFERROR(SMALL($O$10:$O$13,A21),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="41">
-        <f>IFERROR(SUM(D10:D21),"")</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="I22" s="41">
-        <f>IF(
-  MAX(N10:N21)=0,
-  0,
-  INDEX(I10:I21, MATCH(MAX(N10:N21), N10:N21, 0))
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="41">
-        <f>IF(
-  MAX(N10:N21) = 0,
-  0,
-  INDEX(J10:J21, MATCH(MAX(N10:N21), N10:N21, 0))
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="41">
-        <f>IF(
-  MAX(N10:N21) = 0,
-  0,
-  INDEX(K10:K21, MATCH(MAX(N10:N21), N10:N21, 0))
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="41">
-        <f>IF(
-  MAX(N10:N21) = 0,
-  0,
-  INDEX(M10:M21, MATCH(MAX(N10:N21), N10:N21, 0))
-)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(SMALL($O$11:$O$14,A21),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="33" t="str">
+        <f>IFERROR(IF(AND(A22=$B$6,B21&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B13,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B13)-ROW(REPLAY!B$2)+1,REPLAY!B13,"")),"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="87" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D22" s="87" t="str">
+        <f>IF(B22="","",IF(B22=$B$4,0,VLOOKUP(B22,REPLAY!$B$2:$G$13,6,FALSE)*C22))</f>
+        <v/>
+      </c>
+      <c r="E22" s="38" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F22" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G22" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="34" t="str">
+        <f>IF(B22="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B22,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B22,REPLAY!$E$2:$E$10)))</f>
+        <v/>
+      </c>
+      <c r="I22" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J22" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K22" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L22" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M22" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N22" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="66" t="str">
+        <f>IFERROR(IF(AND(A22=$B$7,B21&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B13,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B13)-ROW(TRANX!B$2)+1,TRANX!B13,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P22" s="66" t="str">
+        <f>IFERROR(SMALL($O$11:$O$14,A22),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="41">
+        <f>IFERROR(SUM(D11:D22),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="105" t="s">
+      <c r="I23" s="41">
+        <f>IF(
+  MAX(N11:N22)=0,
+  0,
+  INDEX(I11:I22, MATCH(MAX(N11:N22), N11:N22, 0))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="41">
+        <f>IF(
+  MAX(N11:N22) = 0,
+  0,
+  INDEX(J11:J22, MATCH(MAX(N11:N22), N11:N22, 0))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="41">
+        <f>IF(
+  MAX(N11:N22) = 0,
+  0,
+  INDEX(K11:K22, MATCH(MAX(N11:N22), N11:N22, 0))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="42"/>
+      <c r="M23" s="41">
+        <f>IF(
+  MAX(N11:N22) = 0,
+  0,
+  INDEX(M11:M22, MATCH(MAX(N11:N22), N11:N22, 0))
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="107"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J27" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K27" s="24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43">
         <v>1</v>
       </c>
-      <c r="B27" s="33" t="str">
+      <c r="B28" s="33" t="str">
         <f>IF(EOD!B2="","",EOD!B2)</f>
         <v/>
       </c>
-      <c r="C27" s="43">
+      <c r="C28" s="43">
         <f>EOD!F2</f>
         <v>0</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D28" s="43">
         <f>EOD!G2</f>
         <v>0</v>
       </c>
-      <c r="E27" s="34" t="str">
-        <f>IF(B27="","",IF(B28="",0,(B28-B27)-1))</f>
-        <v/>
-      </c>
-      <c r="F27" s="34">
-        <v>0</v>
-      </c>
-      <c r="G27" s="34">
-        <f>I22</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="34">
-        <f>J22</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="44">
-        <f>C27-H27</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="45">
-        <f>IF(B27="",0,(I27*$B$2)/360)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="46">
-        <f>D27+J27-G27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K28" s="18"/>
+      <c r="E28" s="34" t="str">
+        <f>IF(B28="","",IF(B29="",0,(B29-B28)-1))</f>
+        <v/>
+      </c>
+      <c r="F28" s="34">
+        <v>0</v>
+      </c>
+      <c r="G28" s="34">
+        <f>I23</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="34">
+        <f>J23</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="44">
+        <f>C28-H28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="45">
+        <f>IF(B28="",0,(I28*$B$2)/360)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="46">
+        <f>D28+J28-G28</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="105" t="s">
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="107"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="B30" s="107"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="47">
-        <f>J27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="72">
-        <f>IF(E10="",0,M22-K27)</f>
+      <c r="B31" s="47">
+        <f>J28</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="72">
+        <f>IF(E11="",0,M23-K28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="38">
-        <f>I22</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="105" t="s">
+      <c r="B33" s="38">
+        <f>I23</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="107"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="B36" s="107"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="48">
-        <f>J22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="B37" s="48">
+        <f>J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="71">
-        <f>IF(E10="",0,K22-I27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="104"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="B38" s="71">
+        <f>IF(E11="",0,K23-I28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="104"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B41" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C41" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D41" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E41" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F41" s="26" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="str">
-        <f>B4</f>
-        <v/>
-      </c>
-      <c r="B41" s="1" t="str">
-        <f>A41</f>
-        <v/>
-      </c>
-      <c r="C41" s="8" t="str">
-        <f>IF(A41="","",$B$3)</f>
-        <v/>
-      </c>
-      <c r="D41" s="8" t="str">
-        <f>IF(A41="","","Servicing_Interest_Accrual")</f>
-        <v/>
-      </c>
-      <c r="E41" s="32" t="str">
-        <f>IF(A41="","",ROUND(B30,4))</f>
-        <v/>
-      </c>
-      <c r="F41" s="8" t="str">
-        <f>IF(A41="","",EOD!$D$2)</f>
-        <v/>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
-        <f>IF(ROUND(B31,4)=0,"",$B$4)</f>
+        <f>B4</f>
         <v/>
       </c>
       <c r="B42" s="1" t="str">
-        <f>IF(A42="","",A42)</f>
+        <f>A42</f>
         <v/>
       </c>
       <c r="C42" s="8" t="str">
-        <f t="shared" ref="C42:C44" si="10">IF(A42="","",$B$3)</f>
+        <f>IF(A42="","",$B$3)</f>
         <v/>
       </c>
       <c r="D42" s="8" t="str">
-        <f>IF(A42="","","Interest_Adjustment")</f>
-        <v/>
-      </c>
-      <c r="E42" s="49" t="str">
+        <f>IF(A42="","","Servicing_Interest_Accrual")</f>
+        <v/>
+      </c>
+      <c r="E42" s="32" t="str">
         <f>IF(A42="","",ROUND(B31,4))</f>
         <v/>
       </c>
@@ -7191,15 +7360,15 @@
         <v/>
       </c>
       <c r="C43" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="C43:C45" si="10">IF(A43="","",$B$3)</f>
         <v/>
       </c>
       <c r="D43" s="8" t="str">
-        <f>IF(A43="","","Payment_Interest")</f>
+        <f>IF(A43="","","Interest_Adjustment")</f>
         <v/>
       </c>
       <c r="E43" s="49" t="str">
-        <f>IF(A43="","",ROUND(B32,4)*-1)</f>
+        <f>IF(A43="","",ROUND(B32,4))</f>
         <v/>
       </c>
       <c r="F43" s="8" t="str">
@@ -7209,7 +7378,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
-        <f>IF(ROUND(B36,4)=0,"",$B$4)</f>
+        <f>IF(ROUND(B33,4)=0,"",$B$4)</f>
         <v/>
       </c>
       <c r="B44" s="1" t="str">
@@ -7221,11 +7390,11 @@
         <v/>
       </c>
       <c r="D44" s="8" t="str">
-        <f>IF(A44="","","Payment_UPB")</f>
+        <f>IF(A44="","","Payment_Interest")</f>
         <v/>
       </c>
       <c r="E44" s="49" t="str">
-        <f>IF(A44="","",ROUND(B36,4)*-1)</f>
+        <f>IF(A44="","",ROUND(B33,4)*-1)</f>
         <v/>
       </c>
       <c r="F44" s="8" t="str">
@@ -7243,29 +7412,55 @@
         <v/>
       </c>
       <c r="C45" s="8" t="str">
-        <f>IF(A45="","",$B$3)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D45" s="8" t="str">
-        <f>IF(A45="","","Principal_Adjustment")</f>
+        <f>IF(A45="","","Payment_UPB")</f>
         <v/>
       </c>
       <c r="E45" s="49" t="str">
-        <f>IF(A45="","",ROUND(B37,4))</f>
+        <f>IF(A45="","",ROUND(B37,4)*-1)</f>
         <v/>
       </c>
       <c r="F45" s="8" t="str">
         <f>IF(A45="","",EOD!$D$2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="str">
+        <f>IF(ROUND(B38,4)=0,"",$B$4)</f>
+        <v/>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>IF(A46="","",A46)</f>
+        <v/>
+      </c>
+      <c r="C46" s="8" t="str">
+        <f>IF(A46="","",$B$3)</f>
+        <v/>
+      </c>
+      <c r="D46" s="8" t="str">
+        <f>IF(A46="","","Principal_Adjustment")</f>
+        <v/>
+      </c>
+      <c r="E46" s="49" t="str">
+        <f>IF(A46="","",ROUND(B38,4))</f>
+        <v/>
+      </c>
+      <c r="F46" s="8" t="str">
+        <f>IF(A46="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7273,6 +7468,685 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AC46E0-5FDD-4987-B1BF-6F0E4E46801C}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>44595</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="E2">
+        <v>100000.00008024691</v>
+      </c>
+      <c r="F2">
+        <v>155.55566170267491</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100000.00008024691</v>
+      </c>
+      <c r="L2">
+        <v>27.777777800068588</v>
+      </c>
+      <c r="M2">
+        <v>133.33343950274349</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>44597</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>27.73780864197531</v>
+      </c>
+      <c r="E3">
+        <v>100000.00008024691</v>
+      </c>
+      <c r="F3">
+        <v>161.11121730281207</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>275</v>
+      </c>
+      <c r="I3">
+        <v>161.11121730281207</v>
+      </c>
+      <c r="J3">
+        <v>113.88878269718793</v>
+      </c>
+      <c r="K3">
+        <v>99886.111297549724</v>
+      </c>
+      <c r="L3">
+        <v>27.746142027097147</v>
+      </c>
+      <c r="M3">
+        <v>27.746142027097147</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>44598</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>82.944874099794248</v>
+      </c>
+      <c r="E4">
+        <v>99886.111297549724</v>
+      </c>
+      <c r="F4">
+        <v>27.746142027097147</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>350</v>
+      </c>
+      <c r="I4">
+        <v>27.746142027097147</v>
+      </c>
+      <c r="J4">
+        <v>322.25385797290284</v>
+      </c>
+      <c r="K4">
+        <v>99563.857439576823</v>
+      </c>
+      <c r="L4">
+        <v>27.656627066549117</v>
+      </c>
+      <c r="M4">
+        <v>27.656627066549117</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>44601</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>99563.857439576823</v>
+      </c>
+      <c r="F5">
+        <v>82.969881199647347</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>99563.857439576823</v>
+      </c>
+      <c r="L5">
+        <v>27.656627066549117</v>
+      </c>
+      <c r="M5">
+        <v>110.62650826619647</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>166.2382382973251</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>99563.857439576823</v>
+      </c>
+      <c r="M14">
+        <v>110.62650826619647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>44601</v>
+      </c>
+      <c r="C19">
+        <v>99533.849000000002</v>
+      </c>
+      <c r="D19">
+        <v>82.94489999999999</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>99533.849000000002</v>
+      </c>
+      <c r="J19">
+        <v>27.648291388888893</v>
+      </c>
+      <c r="K19">
+        <v>110.59319138888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EDA303-8389-4D77-8A63-E2504035E096}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -7411,182 +8285,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="95" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="95" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>CALCULATION!A41</f>
-        <v/>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>CALCULATION!B41</f>
-        <v/>
-      </c>
-      <c r="C2" s="95" t="str">
-        <f>CALCULATION!C41</f>
-        <v/>
-      </c>
-      <c r="D2" s="95" t="str">
-        <f>CALCULATION!D41</f>
-        <v/>
-      </c>
-      <c r="E2" s="6" t="str">
-        <f>CALCULATION!E41</f>
-        <v/>
-      </c>
-      <c r="F2" s="7" t="str">
-        <f>CALCULATION!F41</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
-        <f>CALCULATION!A42</f>
-        <v/>
-      </c>
-      <c r="B3" s="3" t="str">
-        <f>CALCULATION!B42</f>
-        <v/>
-      </c>
-      <c r="C3" s="95" t="str">
-        <f>CALCULATION!C42</f>
-        <v/>
-      </c>
-      <c r="D3" s="95" t="str">
-        <f>CALCULATION!D42</f>
-        <v/>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>CALCULATION!E42</f>
-        <v/>
-      </c>
-      <c r="F3" s="7" t="str">
-        <f>CALCULATION!F42</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
-        <f>CALCULATION!A43</f>
-        <v/>
-      </c>
-      <c r="B4" s="3" t="str">
-        <f>CALCULATION!B43</f>
-        <v/>
-      </c>
-      <c r="C4" s="95" t="str">
-        <f>CALCULATION!C43</f>
-        <v/>
-      </c>
-      <c r="D4" s="95" t="str">
-        <f>CALCULATION!D43</f>
-        <v/>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>CALCULATION!E43</f>
-        <v/>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>CALCULATION!F43</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="str">
-        <f>CALCULATION!A44</f>
-        <v/>
-      </c>
-      <c r="B5" s="3" t="str">
-        <f>CALCULATION!B44</f>
-        <v/>
-      </c>
-      <c r="C5" s="95" t="str">
-        <f>CALCULATION!C44</f>
-        <v/>
-      </c>
-      <c r="D5" s="95" t="str">
-        <f>CALCULATION!D44</f>
-        <v/>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>CALCULATION!E44</f>
-        <v/>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>CALCULATION!F44</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="str">
-        <f>CALCULATION!A45</f>
-        <v/>
-      </c>
-      <c r="B6" s="3" t="str">
-        <f>CALCULATION!B45</f>
-        <v/>
-      </c>
-      <c r="C6" s="95" t="str">
-        <f>CALCULATION!C45</f>
-        <v/>
-      </c>
-      <c r="D6" s="95" t="str">
-        <f>CALCULATION!D45</f>
-        <v/>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>CALCULATION!E45</f>
-        <v/>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>CALCULATION!F45</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>